--- a/medicine/Psychotrope/Blend/Blend.xlsx
+++ b/medicine/Psychotrope/Blend/Blend.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Un blend ou blended whisky est un whisky issu de l’assemblage de whiskies d’une ou de plusieurs distilleries. Il peut contenir des whiskies de différentes années, de différentes origines (single malt, bourbons, ryes) mélangés à du whisky de grain, voire de l’alcool neutre. 
@@ -491,7 +503,7 @@
 En Écosse, le système du blending s’appuie sur un très grand nombre de distilleries. Les blends peuvent donc, contrairement à l’Irlande, contenir plusieurs dizaines de single malt et plusieurs single grains. La présence de single grain permet de faire une plus grande quantité de whisky et donc d’être très présents sur les marchés internationaux. C’est d’ailleurs la proportion de single malt par rapport au single grain qui va déterminer la qualité du blend. Plus il y aura de single malt plus le blend sera de bonne qualité.
 Aux États-Unis, les blends sont très peu nombreux et ne représentent qu’une part infime de la production de whisky. Les blends sont le mélange de straight whisky et de whisky de grain. Ils peuvent contenir jusqu’à 80 % d’alcool neutre de grain ce qui altère la qualité.
 Le blend est le principal whisky vendu dans le monde. Plus de 90 % des whiskys consommés dans le monde sont des blends. C’est le blend qui a fait de l’industrie écossaise du whisky ce qu’elle est aujourd’hui. La plupart des distilleries auraient fermé si elles ne s’étaient pas lancées dans la production d’alcool pour les blends. Aucune distillerie au monde ne pourrait, à elle seule produire les millions de bouteilles vendues par Johnnie Walker, Ballantine’s ou William Peel.
-Les marques de Scotch blends les plus vendues au monde sont dans l’ordre [1] :
+Les marques de Scotch blends les plus vendues au monde sont dans l’ordre  :
 Johnnie Walker
 Ballantine’s
 William Grant
